--- a/SubRES_TMPL/SubRES_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs_Trans.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9647987B-2CCE-42D8-8735-B6DFBA199234}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D866ABF1-9447-40C0-9569-80B10686BA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="1335" windowWidth="18135" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVA" sheetId="18" r:id="rId1"/>
-    <sheet name="AF_Trans" sheetId="17" r:id="rId2"/>
-    <sheet name="FILL Table" sheetId="19" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="20" r:id="rId2"/>
+    <sheet name="AF_Trans" sheetId="17" r:id="rId3"/>
+    <sheet name="FILL Table" sheetId="19" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>TimeSlice</t>
   </si>
@@ -120,6 +121,45 @@
   </si>
   <si>
     <t>ELCRNBIO*</t>
+  </si>
+  <si>
+    <t>~tfm_ins</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>FLO_EMIS</t>
+  </si>
+  <si>
+    <t>pset_pn</t>
+  </si>
+  <si>
+    <t>pset_ci</t>
+  </si>
+  <si>
+    <t>*ccs*</t>
+  </si>
+  <si>
+    <t>ELCGAS</t>
+  </si>
+  <si>
+    <t>other_indexes</t>
+  </si>
+  <si>
+    <t>ELCCO2</t>
+  </si>
+  <si>
+    <t>cset_cn</t>
+  </si>
+  <si>
+    <t>CO2Captured</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>CO2storage</t>
   </si>
 </sst>
 </file>
@@ -604,9 +644,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:N9"/>
+  <dimension ref="B4:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -718,27 +760,62 @@
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C8" s="5" t="s">
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>0</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>0</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>0</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>0</v>
       </c>
     </row>
@@ -748,6 +825,74 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B2217D-536D-4DD3-8A74-AD2FD905D256}">
+  <dimension ref="B3:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5">
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B3"/>
@@ -783,7 +928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:N3"/>
   <sheetViews>
